--- a/story/Main Story and Others 主线剧情等/tutorial 教学关卡/level/guide_01_b.xlsx
+++ b/story/Main Story and Others 主线剧情等/tutorial 教学关卡/level/guide_01_b.xlsx
@@ -148,7 +148,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">He is a member of the “Reunion Movement”, a destructive organization. We will be in great trouble if we don't defeat him...
+    <t xml:space="preserve">He is a member of the 'Reunion Movement', a destructive organization. We will be in great trouble if we don't defeat him...
 </t>
   </si>
   <si>

--- a/story/Main Story and Others 主线剧情等/tutorial 教学关卡/level/guide_01_b.xlsx
+++ b/story/Main Story and Others 主线剧情等/tutorial 教学关卡/level/guide_01_b.xlsx
@@ -168,7 +168,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">The number on the Operators’ portrait represent the &lt;@tu.kw&gt;required DP cost&lt;/&gt; to deploy that Operator.
+    <t xml:space="preserve">The number on the Operators' portrait represent the &lt;@tu.kw&gt;required DP cost&lt;/&gt; to deploy that Operator.
 </t>
   </si>
   <si>
